--- a/BITSAUTOMATION/excel/TestData.xlsx
+++ b/BITSAUTOMATION/excel/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050" tabRatio="924" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050" tabRatio="924" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="389">
   <si>
     <t>username</t>
   </si>
@@ -1203,6 +1203,9 @@
   </si>
   <si>
     <t>New Project Test</t>
+  </si>
+  <si>
+    <t>invalid Password</t>
   </si>
 </sst>
 </file>
@@ -1365,6 +1368,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1377,18 +1392,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1673,13 +1676,13 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -1847,6 +1850,15 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>310</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1985,7 +1997,7 @@
         <v>122</v>
       </c>
       <c r="P1" s="1"/>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2130,7 +2142,7 @@
         <v>132</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2181,7 +2193,7 @@
         <v>132</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2477,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2490,19 +2502,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -2594,17 +2606,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
@@ -2665,17 +2677,17 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
@@ -2743,17 +2755,17 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
@@ -2780,17 +2792,17 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
@@ -3090,19 +3102,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -3169,19 +3181,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
@@ -3434,22 +3446,22 @@
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -3460,7 +3472,7 @@
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="3"/>
@@ -3478,7 +3490,7 @@
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>378</v>
       </c>
       <c r="C4" s="3"/>
@@ -3494,7 +3506,7 @@
       <c r="A5" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3"/>
@@ -3771,10 +3783,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="27" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3907,7 +3919,7 @@
       <c r="E2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>316</v>
       </c>
       <c r="G2" s="17">
@@ -3976,10 +3988,10 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="27">
+      <c r="G4" s="23">
         <v>1234567890123</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="23">
         <v>1234567890123</v>
       </c>
       <c r="I4" s="3"/>
@@ -3987,7 +3999,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="27">
+      <c r="N4" s="23">
         <v>1234567</v>
       </c>
       <c r="O4" s="3"/>
@@ -4681,12 +4693,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4880,8 +4892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5055,7 +5067,7 @@
         <v>356</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -5063,7 +5075,7 @@
         <v>80</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -5087,7 +5099,7 @@
         <v>369</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">

--- a/BITSAUTOMATION/excel/TestData.xlsx
+++ b/BITSAUTOMATION/excel/TestData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234DB8C-3D05-4E34-A028-16D276A0DECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7050" tabRatio="924" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="19080" windowHeight="10200" tabRatio="924" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -15,18 +16,19 @@
     <sheet name="MSCourse" sheetId="8" r:id="rId6"/>
     <sheet name="MSData" sheetId="9" r:id="rId7"/>
     <sheet name="SStationList" sheetId="10" r:id="rId8"/>
-    <sheet name="Dashboard" sheetId="21" r:id="rId9"/>
-    <sheet name="SStationDetail" sheetId="11" r:id="rId10"/>
-    <sheet name="SAllotList" sheetId="12" r:id="rId11"/>
-    <sheet name="PBankList1" sheetId="13" r:id="rId12"/>
-    <sheet name="AddProblem" sheetId="14" r:id="rId13"/>
-    <sheet name="SSAllot" sheetId="15" r:id="rId14"/>
-    <sheet name="AllAllotStudentList" sheetId="16" r:id="rId15"/>
-    <sheet name="PersonalInfo" sheetId="17" r:id="rId16"/>
-    <sheet name="AddAcademic" sheetId="18" r:id="rId17"/>
-    <sheet name="ViewCourse" sheetId="19" r:id="rId18"/>
-    <sheet name="ManageStation" sheetId="3" r:id="rId19"/>
-    <sheet name="PBankList" sheetId="4" r:id="rId20"/>
+    <sheet name="AdminDash" sheetId="22" r:id="rId9"/>
+    <sheet name="Dashboard" sheetId="21" r:id="rId10"/>
+    <sheet name="SStationDetail" sheetId="11" r:id="rId11"/>
+    <sheet name="SAllotList" sheetId="12" r:id="rId12"/>
+    <sheet name="PBankList1" sheetId="13" r:id="rId13"/>
+    <sheet name="AddProblem" sheetId="14" r:id="rId14"/>
+    <sheet name="SSAllot" sheetId="15" r:id="rId15"/>
+    <sheet name="AllAllotStudentList" sheetId="16" r:id="rId16"/>
+    <sheet name="PersonalInfo" sheetId="17" r:id="rId17"/>
+    <sheet name="AddAcademic" sheetId="18" r:id="rId18"/>
+    <sheet name="ViewCourse" sheetId="19" r:id="rId19"/>
+    <sheet name="ManageStation" sheetId="3" r:id="rId20"/>
+    <sheet name="PBankList" sheetId="4" r:id="rId21"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="395">
   <si>
     <t>username</t>
   </si>
@@ -473,18 +475,9 @@
     <t>No Writeup of Company</t>
   </si>
   <si>
-    <t>abcdefUdhaya Gmail</t>
-  </si>
-  <si>
-    <t>Udhaya Gmail</t>
-  </si>
-  <si>
     <t>Bala 345 Gmail</t>
   </si>
   <si>
-    <t>2015B4A30602H</t>
-  </si>
-  <si>
     <t>Got</t>
   </si>
   <si>
@@ -977,9 +970,6 @@
     <t>allotment@bits.com</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
     <t>Faculty</t>
   </si>
   <si>
@@ -1139,79 +1129,109 @@
     <t>Practice School - PS II</t>
   </si>
   <si>
+    <t>Station Announced</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Average station Allotted</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Varun.singhpilani.bits-pilani.ac.in</t>
+  </si>
+  <si>
+    <t>1234A</t>
+  </si>
+  <si>
+    <t>12345A</t>
+  </si>
+  <si>
+    <t>a12345678</t>
+  </si>
+  <si>
+    <t>a1234567890</t>
+  </si>
+  <si>
+    <t>Suzlon Energy Limited</t>
+  </si>
+  <si>
+    <t>Afour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>testdelete</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
+    <t>Latest3</t>
+  </si>
+  <si>
+    <t>Viram Technologies</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>ABC Info</t>
+  </si>
+  <si>
+    <t>New Project Test</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Varun</t>
+  </si>
+  <si>
+    <t>Varun Singh</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
     <t>Current Batch - 2021-22</t>
   </si>
   <si>
-    <t>Semester - Semester 1</t>
-  </si>
-  <si>
-    <t>Station Announced</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Average station Allotted</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Varun.singhpilani.bits-pilani.ac.in</t>
-  </si>
-  <si>
-    <t>1234A</t>
-  </si>
-  <si>
-    <t>12345A</t>
-  </si>
-  <si>
-    <t>a12345678</t>
-  </si>
-  <si>
-    <t>a1234567890</t>
-  </si>
-  <si>
-    <t>Suzlon Energy Limited</t>
-  </si>
-  <si>
-    <t>Afour</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
-    <t>testdelete</t>
-  </si>
-  <si>
-    <t>Latest</t>
-  </si>
-  <si>
-    <t>Latest3</t>
-  </si>
-  <si>
-    <t>Viram Technologies</t>
-  </si>
-  <si>
-    <t>2022-23</t>
-  </si>
-  <si>
-    <t>2023-24</t>
-  </si>
-  <si>
-    <t>ABC Info</t>
-  </si>
-  <si>
-    <t>New Project Test</t>
-  </si>
-  <si>
-    <t>invalid Password</t>
+    <t>Practice School - PS I</t>
+  </si>
+  <si>
+    <t>Semester - Semester I</t>
+  </si>
+  <si>
+    <t>invalidtexthere</t>
+  </si>
+  <si>
+    <t>TAPAS MAZUMDAR</t>
+  </si>
+  <si>
+    <t>2018A8B40427P</t>
+  </si>
+  <si>
+    <t>Current Batch - 2023-24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1261,7 +1281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1315,21 +1335,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1343,10 +1354,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1364,9 +1373,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1374,12 +1380,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1672,11 +1678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1700,48 +1706,54 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>307</v>
+      <c r="A2" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>382</v>
+      </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>305</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>383</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>307</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1753,11 +1765,9 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
@@ -1771,15 +1781,17 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1791,15 +1803,17 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>310</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1811,15 +1825,17 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>311</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>311</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1831,15 +1847,17 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>316</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1850,14 +1868,17 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>310</v>
+      <c r="A10" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1916,22 +1937,251 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A7" r:id="rId2"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{E371CEC1-4ED5-4413-821F-8C4A549B87B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" style="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="3">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1996,8 +2246,8 @@
       <c r="O1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="24" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2047,7 +2297,8 @@
       <c r="O2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -2093,14 +2344,15 @@
       <c r="O3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="P3" s="1"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>133</v>
@@ -2141,17 +2393,17 @@
       <c r="O4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="25" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>123</v>
@@ -2192,57 +2444,59 @@
       <c r="O5" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="25" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>7</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>9</v>
       </c>
-      <c r="K6" t="s">
-        <v>371</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="L6" s="3">
         <v>11</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>12</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>13</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>14</v>
       </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2250,12 +2504,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2272,12 +2526,12 @@
       <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>144</v>
+        <v>391</v>
       </c>
       <c r="C2" s="4"/>
     </row>
@@ -2286,10 +2540,10 @@
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>392</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2297,15 +2551,15 @@
         <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2313,25 +2567,25 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2339,12 +2593,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2364,18 +2618,18 @@
       <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="F1" s="6"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2398,10 +2652,10 @@
         <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2420,19 +2674,19 @@
         <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2442,10 +2696,10 @@
         <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2485,12 +2739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I13"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2502,53 +2756,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2556,322 +2810,322 @@
         <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="7" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+      <c r="C6" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="C10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+      <c r="E10" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="G10" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+      <c r="C18" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>13</v>
@@ -2883,36 +3137,36 @@
         <v>15</v>
       </c>
       <c r="M19" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
+      <c r="D20" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>13</v>
@@ -2929,7 +3183,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2941,22 +3195,25 @@
     <mergeCell ref="A17:I17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
@@ -2966,19 +3223,19 @@
         <v>58</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2989,16 +3246,16 @@
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -3006,34 +3263,45 @@
         <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>239</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E7" s="10" t="s">
-        <v>241</v>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3041,12 +3309,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3061,7 +3329,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
@@ -3079,12 +3347,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3102,53 +3370,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3162,77 +3430,77 @@
         <v>79</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
+      <c r="A5" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3241,18 +3509,18 @@
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3266,83 +3534,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3350,8 +3618,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3400,11 +3668,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3446,22 +3880,22 @@
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -3472,7 +3906,7 @@
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="3"/>
@@ -3490,8 +3924,8 @@
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>378</v>
+      <c r="B4" s="21" t="s">
+        <v>372</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3504,9 +3938,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B5" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3"/>
@@ -3536,175 +3970,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3713,7 +3983,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -3725,9 +3995,10 @@
       <c r="D1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
@@ -3736,11 +4007,11 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
@@ -3751,7 +4022,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3766,7 +4037,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3783,19 +4054,22 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3811,19 +4085,19 @@
         <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3833,11 +4107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3856,142 +4130,142 @@
     <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" s="12" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:15" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="G2" s="17">
+      <c r="F2" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="G2" s="15">
         <v>1234567890</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>1234741258</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="15">
         <v>12345</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:15" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G3" s="15">
         <v>123456789</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>123456789</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15">
         <v>1234</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="23">
+      <c r="G4" s="20">
         <v>1234567890123</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="20">
         <v>1234567890123</v>
       </c>
       <c r="I4" s="3"/>
@@ -3999,7 +4273,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="23">
+      <c r="N4" s="20">
         <v>1234567</v>
       </c>
       <c r="O4" s="3"/>
@@ -4012,10 +4286,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4023,7 +4297,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -4041,14 +4315,14 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="17" t="s">
-        <v>374</v>
+      <c r="N6" s="15" t="s">
+        <v>368</v>
       </c>
       <c r="O6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4056,11 +4330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4076,7 +4350,7 @@
       <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4092,10 +4366,10 @@
         <v>61</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4112,7 +4386,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -4140,7 +4414,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -4151,11 +4425,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4218,15 +4492,15 @@
         <v>17</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>76</v>
@@ -4237,11 +4511,11 @@
       <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>331</v>
+      <c r="F2" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>327</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>78</v>
@@ -4274,7 +4548,7 @@
         <v>84</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -4322,7 +4596,7 @@
         <v>92</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -4339,7 +4613,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -4362,9 +4636,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://psmswebqastore.z30.web.core.windows.net/faculty/edit/683"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://psmswebqastore.z30.web.core.windows.net/faculty/edit/683" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -4372,11 +4646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4393,7 +4667,7 @@
       <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4409,7 +4683,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -4421,7 +4695,7 @@
         <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4446,11 +4720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4467,7 +4741,7 @@
       <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -4483,10 +4757,10 @@
         <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4494,23 +4768,23 @@
         <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="21"/>
+        <v>329</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -4535,11 +4809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4572,7 +4846,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -4587,7 +4861,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>48</v>
@@ -4626,8 +4900,8 @@
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>340</v>
+      <c r="B5" s="13" t="s">
+        <v>336</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>40</v>
@@ -4693,12 +4967,12 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4836,10 +5110,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4866,7 +5140,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B23" s="4"/>
     </row>
@@ -4889,229 +5163,317 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8ACBC3-177E-4C5A-B8C4-56A7D10FBDB6}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1656</v>
+      </c>
+      <c r="D12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="3">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="3">
+        <v>50000</v>
+      </c>
+      <c r="D17">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12750</v>
+      </c>
+      <c r="D18">
+        <v>33574.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="3">
+        <v>25500</v>
+      </c>
+      <c r="D19">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="3">
+        <v>482</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="3">
+        <v>394</v>
+      </c>
+      <c r="D22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="3">
+        <v>88</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B5">
+      <c r="B24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B6">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B7">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="3">
+        <v>482</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>357</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>368</v>
-      </c>
-      <c r="B13" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>360</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>361</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>362</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>364</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>356</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>369</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>370</v>
-      </c>
-      <c r="B26">
+      <c r="D26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>